--- a/excel/예시 데이터.xlsx
+++ b/excel/예시 데이터.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binsin/dev/study/excel-convert-query/src/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binsin/dev/study/excel-convert-query/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389A4277-2CB8-6F47-9255-E150DBCB2E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B279F33-31A0-E246-BDC6-5B7E8457019B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31540" yWindow="2620" windowWidth="28300" windowHeight="17440" xr2:uid="{B895322D-5B2F-814C-9C26-B3F433EA7CA4}"/>
   </bookViews>
@@ -35,63 +35,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>COLUMN1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COLUMN2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COLUMN3</t>
-  </si>
-  <si>
-    <t>COLUMN4</t>
-  </si>
-  <si>
-    <t>COLUMN5</t>
-  </si>
-  <si>
-    <t>COLUMN6</t>
-  </si>
-  <si>
-    <t>COLUMN7</t>
-  </si>
-  <si>
-    <t>COLUMN8</t>
-  </si>
-  <si>
-    <t>COLUMN9</t>
-  </si>
-  <si>
-    <t>COLUMN10</t>
-  </si>
-  <si>
-    <t>Hello1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hello2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hello3</t>
-  </si>
-  <si>
-    <t>Hello4</t>
-  </si>
-  <si>
-    <t>getdate()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+  <si>
+    <t>FCM_ADD_BLCS_MGMT_M</t>
+  </si>
+  <si>
+    <t>ADD_BLCS_NM</t>
+  </si>
+  <si>
+    <t>HF_ADD_BLCS_TYPE_CD</t>
+  </si>
+  <si>
+    <t>HF_SEAT_CD</t>
+  </si>
+  <si>
+    <t>BLD_TYPE_CD</t>
+  </si>
+  <si>
+    <t>HF_ADD_BLCS_LRCL_CD</t>
+  </si>
+  <si>
+    <t>HF_ADD_BLCS_MDCL_CD</t>
+  </si>
+  <si>
+    <t>GDS_CD</t>
+  </si>
+  <si>
+    <t>SORT_SEQ</t>
+  </si>
+  <si>
+    <t>SYS_CRTR_ID</t>
+  </si>
+  <si>
+    <t>SYS_CRT_DTTM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,6 +116,19 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,8 +153,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,137 +477,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90D5DCF-D9EA-CA46-8F8B-9353653F8187}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>20231101</v>
-      </c>
-      <c r="D2">
-        <v>29991231</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3">
-        <v>20231101</v>
-      </c>
-      <c r="D3">
-        <v>29991231</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>300</v>
-      </c>
-      <c r="C4">
+      <c r="A4" s="2">
+        <v>5146</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>20231101</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>29991231</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9670</v>
+      </c>
+      <c r="G4" s="2">
         <v>100</v>
       </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>400</v>
-      </c>
-      <c r="C5">
+      <c r="A5" s="2">
+        <v>5147</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>20231101</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>29991231</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10110</v>
+      </c>
+      <c r="G5" s="2">
         <v>100</v>
       </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
+        <v>5148</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20231101</v>
+      </c>
+      <c r="D6" s="2">
+        <v>29991231</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6770</v>
+      </c>
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
+        <v>5149</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20231101</v>
+      </c>
+      <c r="D7" s="2">
+        <v>29991231</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4830</v>
+      </c>
+      <c r="G7" s="2">
+        <v>100</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
